--- a/Data/ColonialEFW.xlsx
+++ b/Data/ColonialEFW.xlsx
@@ -2019,13 +2019,13 @@
         <v>6.1309466361999512</v>
       </c>
       <c r="EM2" s="1">
-        <v>2.3833975791931152</v>
+        <v>4.6265711784362793</v>
       </c>
       <c r="EN2" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO2" s="1">
-        <v>0.0010629207827150822</v>
+        <v>0.0018169828690588474</v>
       </c>
     </row>
     <row r="3">
@@ -2328,13 +2328,13 @@
         <v>6.581566333770752</v>
       </c>
       <c r="EM3" s="1">
-        <v>32.886177062988281</v>
+        <v>33.542240142822266</v>
       </c>
       <c r="EN3" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO3" s="1">
-        <v>0.014666205272078514</v>
+        <v>0.013172968290746212</v>
       </c>
     </row>
     <row r="4">
@@ -2700,11 +2700,15 @@
       <c r="EL4" s="1">
         <v>6.834526538848877</v>
       </c>
-      <c r="EM4" s="1"/>
+      <c r="EM4" s="1">
+        <v>18.528949737548828</v>
+      </c>
       <c r="EN4" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO4" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO4" s="1">
+        <v>0.0072768325917422771</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3082,13 +3086,13 @@
         <v>6.6343750953674317</v>
       </c>
       <c r="EM5" s="1">
-        <v>33.417171478271484</v>
+        <v>31.073657989501953</v>
       </c>
       <c r="EN5" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO5" s="1">
-        <v>0.014903012663125992</v>
+        <v>0.012203487567603588</v>
       </c>
     </row>
     <row r="6">
@@ -3479,13 +3483,13 @@
         <v>6.0459814071655273</v>
       </c>
       <c r="EM6" s="1">
-        <v>30.419229507446289</v>
+        <v>28.793756484985352</v>
       </c>
       <c r="EN6" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO6" s="1">
-        <v>0.013566024601459503</v>
+        <v>0.011308107525110245</v>
       </c>
     </row>
     <row r="7">
@@ -3870,13 +3874,13 @@
         <v>5.8909435272216797</v>
       </c>
       <c r="EM7" s="1">
-        <v>27.920860290527344</v>
+        <v>25.209873199462891</v>
       </c>
       <c r="EN7" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO7" s="1">
-        <v>0.012451830320060253</v>
+        <v>0.0099006164819002151</v>
       </c>
     </row>
     <row r="8">
@@ -4263,13 +4267,13 @@
         <v>5.8479142189025879</v>
       </c>
       <c r="EM8" s="1">
-        <v>28.579509735107422</v>
+        <v>27.018312454223633</v>
       </c>
       <c r="EN8" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO8" s="1">
-        <v>0.012745566666126251</v>
+        <v>0.01061084121465683</v>
       </c>
     </row>
     <row r="9">
@@ -4646,13 +4650,13 @@
         <v>6.7223896980285645</v>
       </c>
       <c r="EM9" s="1">
-        <v>26.32525634765625</v>
+        <v>27.16900634765625</v>
       </c>
       <c r="EN9" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO9" s="1">
-        <v>0.011740240268409252</v>
+        <v>0.010670023038983345</v>
       </c>
     </row>
     <row r="10">
@@ -4955,13 +4959,13 @@
         <v>6.6421985626220703</v>
       </c>
       <c r="EM10" s="1">
-        <v>30.528217315673828</v>
+        <v>30.715965270996094</v>
       </c>
       <c r="EN10" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO10" s="1">
-        <v>0.01361462939530611</v>
+        <v>0.012063011527061462</v>
       </c>
     </row>
     <row r="11">
@@ -5348,13 +5352,13 @@
         <v>6.8866839408874512</v>
       </c>
       <c r="EM11" s="1">
-        <v>18.211027145385742</v>
+        <v>20.581502914428711</v>
       </c>
       <c r="EN11" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO11" s="1">
-        <v>0.0081215482205152512</v>
+        <v>0.0080829272046685219</v>
       </c>
     </row>
     <row r="12">
@@ -5745,13 +5749,13 @@
         <v>7.4441108703613281</v>
       </c>
       <c r="EM12" s="1">
-        <v>1.7406183481216431</v>
+        <v>5.0360345840454102</v>
       </c>
       <c r="EN12" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO12" s="1">
-        <v>0.00077626132406294346</v>
+        <v>0.0019777906127274036</v>
       </c>
     </row>
     <row r="13">
@@ -6117,11 +6121,15 @@
       <c r="EL13" s="1">
         <v>6.8873357772827149</v>
       </c>
-      <c r="EM13" s="1"/>
+      <c r="EM13" s="1">
+        <v>16.706314086914063</v>
+      </c>
       <c r="EN13" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO13" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO13" s="1">
+        <v>0.0065610329620540142</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -6486,11 +6494,15 @@
       <c r="EL14" s="1">
         <v>5.9177556037902832</v>
       </c>
-      <c r="EM14" s="1"/>
+      <c r="EM14" s="1">
+        <v>9.1673030853271484</v>
+      </c>
       <c r="EN14" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO14" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO14" s="1">
+        <v>0.0036002541892230511</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -6874,13 +6886,13 @@
         <v>7.0900959968566895</v>
       </c>
       <c r="EM15" s="1">
-        <v>10.41942310333252</v>
+        <v>13.690710067749023</v>
       </c>
       <c r="EN15" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO15" s="1">
-        <v>0.0046467366628348827</v>
+        <v>0.0053767217323184013</v>
       </c>
     </row>
     <row r="16">
@@ -7183,13 +7195,13 @@
         <v>6.6148161888122559</v>
       </c>
       <c r="EM16" s="1">
-        <v>31.467340469360352</v>
+        <v>31.976945877075195</v>
       </c>
       <c r="EN16" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO16" s="1">
-        <v>0.01403344888240099</v>
+        <v>0.012558233924210072</v>
       </c>
     </row>
     <row r="17">
@@ -7556,13 +7568,13 @@
         <v>6.5463604927062988</v>
       </c>
       <c r="EM17" s="1">
-        <v>35.197486877441406</v>
+        <v>35.240375518798828</v>
       </c>
       <c r="EN17" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO17" s="1">
-        <v>0.015696978196501732</v>
+        <v>0.013839873485267162</v>
       </c>
     </row>
     <row r="18">
@@ -7947,13 +7959,13 @@
         <v>6.581566333770752</v>
       </c>
       <c r="EM18" s="1">
-        <v>33.177036285400391</v>
+        <v>33.542240142822266</v>
       </c>
       <c r="EN18" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO18" s="1">
-        <v>0.014795919880270958</v>
+        <v>0.013172968290746212</v>
       </c>
     </row>
     <row r="19">
@@ -8338,13 +8350,13 @@
         <v>5.8420462608337402</v>
       </c>
       <c r="EM19" s="1">
-        <v>28.559234619140625</v>
+        <v>27.269767761230469</v>
       </c>
       <c r="EN19" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO19" s="1">
-        <v>0.01273652445524931</v>
+        <v>0.010709594935178757</v>
       </c>
     </row>
     <row r="20">
@@ -8725,13 +8737,13 @@
         <v>7.0040369033813477</v>
       </c>
       <c r="EM20" s="1">
-        <v>14.072752952575684</v>
+        <v>16.435214996337891</v>
       </c>
       <c r="EN20" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO20" s="1">
-        <v>0.0062760072760283947</v>
+        <v>0.0064545650966465473</v>
       </c>
     </row>
     <row r="21">
@@ -9097,11 +9109,15 @@
       <c r="EL21" s="1">
         <v>6.879511833190918</v>
       </c>
-      <c r="EM21" s="1"/>
+      <c r="EM21" s="1">
+        <v>16.970376968383789</v>
+      </c>
       <c r="EN21" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO21" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO21" s="1">
+        <v>0.0066647380590438843</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -9487,13 +9503,13 @@
         <v>5.8987669944763184</v>
       </c>
       <c r="EM22" s="1">
-        <v>27.512428283691406</v>
+        <v>24.887796401977539</v>
       </c>
       <c r="EN22" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO22" s="1">
-        <v>0.012269682250916958</v>
+        <v>0.0097741279751062393</v>
       </c>
     </row>
     <row r="23">
@@ -9892,13 +9908,13 @@
         <v>6.1242170333862305</v>
       </c>
       <c r="EM23" s="1">
-        <v>26.38511848449707</v>
+        <v>25.444124221801758</v>
       </c>
       <c r="EN23" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO23" s="1">
-        <v>0.011766936630010605</v>
+        <v>0.0099926134571433067</v>
       </c>
     </row>
     <row r="24">
@@ -10201,13 +10217,13 @@
         <v>5.0624051094055176</v>
       </c>
       <c r="EM24" s="1">
-        <v>31.154953002929688</v>
+        <v>18.596837997436524</v>
       </c>
       <c r="EN24" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO24" s="1">
-        <v>0.013894134201109409</v>
+        <v>0.0073034944944083691</v>
       </c>
     </row>
     <row r="25">
@@ -10594,13 +10610,13 @@
         <v>5.8752965927124023</v>
       </c>
       <c r="EM25" s="1">
-        <v>28.379114151000977</v>
+        <v>25.860240936279297</v>
       </c>
       <c r="EN25" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO25" s="1">
-        <v>0.01265619695186615</v>
+        <v>0.010156034491956234</v>
       </c>
     </row>
     <row r="26">
@@ -10966,11 +10982,15 @@
       <c r="EL26" s="1">
         <v>6.9284090995788574</v>
       </c>
-      <c r="EM26" s="1"/>
+      <c r="EM26" s="1">
+        <v>15.35392951965332</v>
+      </c>
       <c r="EN26" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO26" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO26" s="1">
+        <v>0.0060299141332507134</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -11336,13 +11356,13 @@
         <v>5.9105024337768555</v>
       </c>
       <c r="EM27" s="1">
-        <v>27.725439071655274</v>
+        <v>24.408563613891602</v>
       </c>
       <c r="EN27" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO27" s="1">
-        <v>0.012364678084850311</v>
+        <v>0.0095859197899699211</v>
       </c>
     </row>
     <row r="28">
@@ -11723,13 +11743,13 @@
         <v>6.3558735847473145</v>
       </c>
       <c r="EM28" s="1">
-        <v>0.15662640333175659</v>
+        <v>1.5027657747268677</v>
       </c>
       <c r="EN28" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO28" s="1">
-        <v>6.9850473664700985e-05</v>
+        <v>0.00059017783496528864</v>
       </c>
     </row>
     <row r="29">
@@ -12095,11 +12115,15 @@
       <c r="EL29" s="1">
         <v>6.9362325668334961</v>
       </c>
-      <c r="EM29" s="1"/>
+      <c r="EM29" s="1">
+        <v>15.102804183959961</v>
+      </c>
       <c r="EN29" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO29" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO29" s="1">
+        <v>0.0059312903322279453</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -12401,13 +12425,13 @@
         <v>6.5698308944702148</v>
       </c>
       <c r="EM30" s="1">
-        <v>33.819637298583984</v>
+        <v>34.103626251220703</v>
       </c>
       <c r="EN30" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO30" s="1">
-        <v>0.015082499943673611</v>
+        <v>0.013393440283834934</v>
       </c>
     </row>
     <row r="31">
@@ -12770,13 +12794,13 @@
         <v>5.9320173263549805</v>
       </c>
       <c r="EM31" s="1">
-        <v>26.773824691772461</v>
+        <v>23.542072296142578</v>
       </c>
       <c r="EN31" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO31" s="1">
-        <v>0.011940287426114082</v>
+        <v>0.009245624765753746</v>
       </c>
     </row>
     <row r="32">
@@ -13142,11 +13166,15 @@
       <c r="EL32" s="1">
         <v>6.397517204284668</v>
       </c>
-      <c r="EM32" s="1"/>
+      <c r="EM32" s="1">
+        <v>8.6290073394775391</v>
+      </c>
       <c r="EN32" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO32" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO32" s="1">
+        <v>0.0033888507168740034</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -13532,13 +13560,13 @@
         <v>5.9672231674194336</v>
       </c>
       <c r="EM33" s="1">
-        <v>24.158309936523438</v>
+        <v>22.157949447631836</v>
       </c>
       <c r="EN33" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO33" s="1">
-        <v>0.010773850604891777</v>
+        <v>0.0087020415812730789</v>
       </c>
     </row>
     <row r="34">
@@ -13904,11 +13932,15 @@
       <c r="EL34" s="1">
         <v>6.9049386978149414</v>
       </c>
-      <c r="EM34" s="1"/>
+      <c r="EM34" s="1">
+        <v>16.119731903076172</v>
+      </c>
       <c r="EN34" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO34" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO34" s="1">
+        <v>0.0063306661322712898</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -14284,13 +14316,13 @@
         <v>6.5131101608276367</v>
       </c>
       <c r="EM35" s="1">
-        <v>40.241168975830078</v>
+        <v>36.882667541503906</v>
       </c>
       <c r="EN35" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO35" s="1">
-        <v>0.017946301028132439</v>
+        <v>0.014484846964478493</v>
       </c>
     </row>
     <row r="36">
@@ -14673,13 +14705,13 @@
         <v>6.6187281608581543</v>
       </c>
       <c r="EM36" s="1">
-        <v>31.730398178100586</v>
+        <v>31.795255661010742</v>
       </c>
       <c r="EN36" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO36" s="1">
-        <v>0.014150764793157578</v>
+        <v>0.012486878782510757</v>
       </c>
     </row>
     <row r="37">
@@ -15066,13 +15098,13 @@
         <v>5.9261493682861328</v>
       </c>
       <c r="EM37" s="1">
-        <v>26.257074356079102</v>
+        <v>23.776832580566406</v>
       </c>
       <c r="EN37" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO37" s="1">
-        <v>0.011709833517670631</v>
+        <v>0.0093378219753503799</v>
       </c>
     </row>
     <row r="38">
@@ -15469,13 +15501,13 @@
         <v>7.3306694030761719</v>
       </c>
       <c r="EM38" s="1">
-        <v>3.8931901454925537</v>
+        <v>7.3477292060852051</v>
       </c>
       <c r="EN38" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO38" s="1">
-        <v>0.0017362409271299839</v>
+        <v>0.0028856571298092604</v>
       </c>
     </row>
     <row r="39">
@@ -15862,13 +15894,13 @@
         <v>5.9163699150085449</v>
       </c>
       <c r="EM39" s="1">
-        <v>26.682846069335938</v>
+        <v>24.170692443847656</v>
       </c>
       <c r="EN39" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO39" s="1">
-        <v>0.011899714358150959</v>
+        <v>0.0094925016164779663</v>
       </c>
     </row>
     <row r="40">
@@ -16255,13 +16287,13 @@
         <v>6.648066520690918</v>
       </c>
       <c r="EM40" s="1">
-        <v>30.145832061767578</v>
+        <v>30.449058532714844</v>
       </c>
       <c r="EN40" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO40" s="1">
-        <v>0.013444097712635994</v>
+        <v>0.011958190239965916</v>
       </c>
     </row>
     <row r="41">
@@ -16646,13 +16678,13 @@
         <v>5.5363583564758301</v>
       </c>
       <c r="EM41" s="1">
-        <v>21.086236953735352</v>
+        <v>21.126510620117188</v>
       </c>
       <c r="EN41" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO41" s="1">
-        <v>0.0094038015231490135</v>
+        <v>0.008296966552734375</v>
       </c>
     </row>
     <row r="42">
@@ -17018,11 +17050,15 @@
       <c r="EL42" s="1">
         <v>6.9205856323242188</v>
       </c>
-      <c r="EM42" s="1"/>
+      <c r="EM42" s="1">
+        <v>15.607126235961914</v>
+      </c>
       <c r="EN42" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO42" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO42" s="1">
+        <v>0.006129351444542408</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -17412,13 +17448,13 @@
         <v>7.1839780807495117</v>
       </c>
       <c r="EM43" s="1">
-        <v>7.551027774810791</v>
+        <v>10.982451438903809</v>
       </c>
       <c r="EN43" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO43" s="1">
-        <v>0.003367522032931447</v>
+        <v>0.004313113633543253</v>
       </c>
     </row>
     <row r="44">
@@ -17784,11 +17820,15 @@
       <c r="EL44" s="1">
         <v>6.9205856323242188</v>
       </c>
-      <c r="EM44" s="1"/>
+      <c r="EM44" s="1">
+        <v>15.607126235961914</v>
+      </c>
       <c r="EN44" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO44" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO44" s="1">
+        <v>0.006129351444542408</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -18153,11 +18193,15 @@
       <c r="EL45" s="1">
         <v>5.9926495552062988</v>
       </c>
-      <c r="EM45" s="1"/>
+      <c r="EM45" s="1">
+        <v>21.184383392333984</v>
+      </c>
       <c r="EN45" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO45" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO45" s="1">
+        <v>0.0083196954801678658</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -18543,13 +18587,13 @@
         <v>6.529848575592041</v>
       </c>
       <c r="EM46" s="1">
-        <v>11.266880989074707</v>
+        <v>10.367424964904785</v>
       </c>
       <c r="EN46" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO46" s="1">
-        <v>0.0050246762111783028</v>
+        <v>0.0040715755894780159</v>
       </c>
     </row>
     <row r="47">
@@ -18936,13 +18980,13 @@
         <v>6.7086987495422363</v>
       </c>
       <c r="EM47" s="1">
-        <v>27.048469543457031</v>
+        <v>27.759185791015625</v>
       </c>
       <c r="EN47" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO47" s="1">
-        <v>0.012062771245837212</v>
+        <v>0.010901802219450474</v>
       </c>
     </row>
     <row r="48">
@@ -19235,13 +19279,13 @@
         <v>6.4563899040222168</v>
       </c>
       <c r="EM48" s="1">
-        <v>39.450767517089844</v>
+        <v>39.770553588867188</v>
       </c>
       <c r="EN48" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO48" s="1">
-        <v>0.017593808472156525</v>
+        <v>0.015619000419974327</v>
       </c>
     </row>
     <row r="49">
@@ -19544,13 +19588,13 @@
         <v>6.481816291809082</v>
       </c>
       <c r="EM49" s="1">
-        <v>35.620658874511719</v>
+        <v>38.4625244140625</v>
       </c>
       <c r="EN49" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO49" s="1">
-        <v>0.015885699540376663</v>
+        <v>0.015105300582945347</v>
       </c>
     </row>
     <row r="50">
@@ -19941,13 +19985,13 @@
         <v>7.3130664825439453</v>
       </c>
       <c r="EM50" s="1">
-        <v>4.3628420829772949</v>
+        <v>7.745457649230957</v>
       </c>
       <c r="EN50" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO50" s="1">
-        <v>0.0019456910667940974</v>
+        <v>0.0030418562237173319</v>
       </c>
     </row>
     <row r="51">
@@ -20250,13 +20294,13 @@
         <v>6.4720368385314942</v>
       </c>
       <c r="EM51" s="1">
-        <v>36.634716033935547</v>
+        <v>38.963024139404297</v>
       </c>
       <c r="EN51" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO51" s="1">
-        <v>0.016337936744093895</v>
+        <v>0.015301860868930817</v>
       </c>
     </row>
     <row r="52">
@@ -20643,13 +20687,13 @@
         <v>6.5678749084472656</v>
       </c>
       <c r="EM52" s="1">
-        <v>33.688098907470703</v>
+        <v>34.197639465332031</v>
       </c>
       <c r="EN52" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO52" s="1">
-        <v>0.015023837797343731</v>
+        <v>0.01343036163598299</v>
       </c>
     </row>
     <row r="53">
@@ -20942,13 +20986,13 @@
         <v>5.8850760459899902</v>
       </c>
       <c r="EM53" s="1">
-        <v>28.077035903930664</v>
+        <v>25.452793121337891</v>
       </c>
       <c r="EN53" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO53" s="1">
-        <v>0.012521479278802872</v>
+        <v>0.0099960183724761009</v>
       </c>
     </row>
     <row r="54">
@@ -21241,13 +21285,13 @@
         <v>6.5189781188964844</v>
       </c>
       <c r="EM54" s="1">
-        <v>33.802490234375</v>
+        <v>36.590137481689453</v>
       </c>
       <c r="EN54" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO54" s="1">
-        <v>0.015074852854013443</v>
+        <v>0.014369962736964226</v>
       </c>
     </row>
     <row r="55">
@@ -21622,13 +21666,13 @@
         <v>5.838134765625</v>
       </c>
       <c r="EM55" s="1">
-        <v>28.94403076171875</v>
+        <v>27.438055038452148</v>
       </c>
       <c r="EN55" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO55" s="1">
-        <v>0.012908131815493107</v>
+        <v>0.01077568531036377</v>
       </c>
     </row>
     <row r="56">
@@ -21931,13 +21975,13 @@
         <v>5.7696785926818848</v>
       </c>
       <c r="EM56" s="1">
-        <v>29.539985656738281</v>
+        <v>30.466852188110352</v>
       </c>
       <c r="EN56" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO56" s="1">
-        <v>0.013173908926546574</v>
+        <v>0.011965177953243256</v>
       </c>
     </row>
     <row r="57">
@@ -22326,13 +22370,13 @@
         <v>4.6044163703918457</v>
       </c>
       <c r="EM57" s="1">
-        <v>26.846273422241211</v>
+        <v>18.015069961547852</v>
       </c>
       <c r="EN57" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO57" s="1">
-        <v>0.011972597800195217</v>
+        <v>0.0070750177837908268</v>
       </c>
     </row>
     <row r="58">
@@ -22723,13 +22767,13 @@
         <v>6.7947573661804199</v>
       </c>
       <c r="EM58" s="1">
-        <v>22.594970703125</v>
+        <v>24.154840469360352</v>
       </c>
       <c r="EN58" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO58" s="1">
-        <v>0.010076649487018585</v>
+        <v>0.0094862757250666618</v>
       </c>
     </row>
     <row r="59">
@@ -23110,13 +23154,13 @@
         <v>6.6069927215576172</v>
       </c>
       <c r="EM59" s="1">
-        <v>32.344276428222656</v>
+        <v>32.341884613037109</v>
       </c>
       <c r="EN59" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO59" s="1">
-        <v>0.014424535445868969</v>
+        <v>0.012701555155217648</v>
       </c>
     </row>
     <row r="60">
@@ -23509,13 +23553,13 @@
         <v>5.9848260879516602</v>
       </c>
       <c r="EM60" s="1">
-        <v>17.582098007202148</v>
+        <v>21.481613159179688</v>
       </c>
       <c r="EN60" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO60" s="1">
-        <v>0.007841065526008606</v>
+        <v>0.0084364255890250206</v>
       </c>
     </row>
     <row r="61">
@@ -23902,13 +23946,13 @@
         <v>5.8576936721801758</v>
       </c>
       <c r="EM61" s="1">
-        <v>28.537075042724609</v>
+        <v>26.601804733276367</v>
       </c>
       <c r="EN61" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO61" s="1">
-        <v>0.012726642191410065</v>
+        <v>0.010447266511619091</v>
       </c>
     </row>
     <row r="62">
@@ -24274,11 +24318,15 @@
       <c r="EL62" s="1">
         <v>6.9284090995788574</v>
       </c>
-      <c r="EM62" s="1"/>
+      <c r="EM62" s="1">
+        <v>15.35392951965332</v>
+      </c>
       <c r="EN62" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO62" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO62" s="1">
+        <v>0.0060299141332507134</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -24664,13 +24712,13 @@
         <v>5.8440022468566895</v>
       </c>
       <c r="EM63" s="1">
-        <v>28.567361831665039</v>
+        <v>27.185819625854492</v>
       </c>
       <c r="EN63" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO63" s="1">
-        <v>0.012740149162709713</v>
+        <v>0.010676626116037369</v>
       </c>
     </row>
     <row r="64">
@@ -25055,13 +25103,13 @@
         <v>6.5620074272155762</v>
       </c>
       <c r="EM64" s="1">
-        <v>34.947101593017578</v>
+        <v>34.480472564697266</v>
       </c>
       <c r="EN64" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO64" s="1">
-        <v>0.015585313551127911</v>
+        <v>0.013541438616812229</v>
       </c>
     </row>
     <row r="65">
@@ -25446,13 +25494,13 @@
         <v>5.8981966972351074</v>
       </c>
       <c r="EM65" s="1">
-        <v>7.4738030433654785</v>
+        <v>9.6608867645263672</v>
       </c>
       <c r="EN65" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO65" s="1">
-        <v>0.003333082189783454</v>
+        <v>0.0037940982729196549</v>
       </c>
     </row>
     <row r="66">
@@ -25843,13 +25891,13 @@
         <v>6.051325798034668</v>
       </c>
       <c r="EM66" s="1">
-        <v>16.58985710144043</v>
+        <v>19.021162033081055</v>
       </c>
       <c r="EN66" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO66" s="1">
-        <v>0.0073985569179058075</v>
+        <v>0.0074701379053294659</v>
       </c>
     </row>
     <row r="67">
@@ -26232,13 +26280,13 @@
         <v>6.9218897819519043</v>
       </c>
       <c r="EM67" s="1">
-        <v>16.703760147094727</v>
+        <v>19.2886962890625</v>
       </c>
       <c r="EN67" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO67" s="1">
-        <v>0.0074493540450930595</v>
+        <v>0.007575206458568573</v>
       </c>
     </row>
     <row r="68">
@@ -26623,13 +26671,13 @@
         <v>6.5698308944702148</v>
       </c>
       <c r="EM68" s="1">
-        <v>33.583881378173828</v>
+        <v>34.103626251220703</v>
       </c>
       <c r="EN68" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO68" s="1">
-        <v>0.014977360144257545</v>
+        <v>0.013393440283834934</v>
       </c>
     </row>
     <row r="69">
@@ -27020,13 +27068,13 @@
         <v>6.8984193801879883</v>
       </c>
       <c r="EM69" s="1">
-        <v>17.707704544067383</v>
+        <v>20.145908355712891</v>
       </c>
       <c r="EN69" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO69" s="1">
-        <v>0.0078970817849040031</v>
+        <v>0.0079118572175502777</v>
       </c>
     </row>
     <row r="70">
@@ -27405,13 +27453,13 @@
         <v>6.4994192123413086</v>
       </c>
       <c r="EM70" s="1">
-        <v>38.035297393798828</v>
+        <v>37.569778442382813</v>
       </c>
       <c r="EN70" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO70" s="1">
-        <v>0.016962552443146706</v>
+        <v>0.014754694886505604</v>
       </c>
     </row>
     <row r="71">
@@ -27798,13 +27846,13 @@
         <v>5.8185758590698242</v>
       </c>
       <c r="EM71" s="1">
-        <v>27.996078491210938</v>
+        <v>28.287248611450195</v>
       </c>
       <c r="EN71" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO71" s="1">
-        <v>0.012485374696552753</v>
+        <v>0.011109187267720699</v>
       </c>
     </row>
     <row r="72">
@@ -28191,13 +28239,13 @@
         <v>6.5952572822570801</v>
       </c>
       <c r="EM72" s="1">
-        <v>33.031871795654297</v>
+        <v>32.893177032470703</v>
       </c>
       <c r="EN72" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO72" s="1">
-        <v>0.014731180854141712</v>
+        <v>0.012918063439428806</v>
       </c>
     </row>
     <row r="73">
@@ -28563,11 +28611,15 @@
       <c r="EL73" s="1">
         <v>6.922541618347168</v>
       </c>
-      <c r="EM73" s="1"/>
+      <c r="EM73" s="1">
+        <v>15.543634414672852</v>
+      </c>
       <c r="EN73" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO73" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO73" s="1">
+        <v>0.0061044166795909405</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -28943,13 +28995,13 @@
         <v>6.5620074272155762</v>
       </c>
       <c r="EM74" s="1">
-        <v>38.033077239990234</v>
+        <v>34.480472564697266</v>
       </c>
       <c r="EN74" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO74" s="1">
-        <v>0.016961561515927315</v>
+        <v>0.013541438616812229</v>
       </c>
     </row>
     <row r="75">
@@ -29336,13 +29388,13 @@
         <v>6.6558899879455566</v>
       </c>
       <c r="EM75" s="1">
-        <v>29.9298095703125</v>
+        <v>30.094989776611328</v>
       </c>
       <c r="EN75" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO75" s="1">
-        <v>0.01334775798022747</v>
+        <v>0.011819137260317802</v>
       </c>
     </row>
     <row r="76">
@@ -29708,11 +29760,15 @@
       <c r="EL76" s="1">
         <v>6.9381885528564453</v>
       </c>
-      <c r="EM76" s="1"/>
+      <c r="EM76" s="1">
+        <v>15.040347099304199</v>
+      </c>
       <c r="EN76" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO76" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO76" s="1">
+        <v>0.0059067616239190102</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -30077,11 +30133,15 @@
       <c r="EL77" s="1">
         <v>6.9088501930236816</v>
       </c>
-      <c r="EM77" s="1"/>
+      <c r="EM77" s="1">
+        <v>15.990801811218262</v>
+      </c>
       <c r="EN77" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO77" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO77" s="1">
+        <v>0.0062800315208733082</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -30455,13 +30515,13 @@
         <v>6.990997314453125</v>
       </c>
       <c r="EM78" s="1">
-        <v>5.4044756889343262</v>
+        <v>13.402901649475098</v>
       </c>
       <c r="EN78" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO78" s="1">
-        <v>0.0024102269671857357</v>
+        <v>0.0052636913023889065</v>
       </c>
     </row>
     <row r="79">
@@ -30834,13 +30894,13 @@
         <v>6.481816291809082</v>
       </c>
       <c r="EM79" s="1">
-        <v>45.273368835449219</v>
+        <v>38.4625244140625</v>
       </c>
       <c r="EN79" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO79" s="1">
-        <v>0.020190505310893059</v>
+        <v>0.015105300582945347</v>
       </c>
     </row>
     <row r="80">
@@ -31206,11 +31266,15 @@
       <c r="EL80" s="1">
         <v>6.8756003379821777</v>
       </c>
-      <c r="EM80" s="1"/>
+      <c r="EM80" s="1">
+        <v>17.103189468383789</v>
+      </c>
       <c r="EN80" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO80" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO80" s="1">
+        <v>0.0067168972454965115</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -31512,13 +31576,13 @@
         <v>6.5365810394287109</v>
       </c>
       <c r="EM81" s="1">
-        <v>33.336753845214844</v>
+        <v>35.719520568847656</v>
       </c>
       <c r="EN81" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO81" s="1">
-        <v>0.014867149293422699</v>
+        <v>0.01402804721146822</v>
       </c>
     </row>
     <row r="82">
@@ -31909,13 +31973,13 @@
         <v>6.0381579399108887</v>
       </c>
       <c r="EM82" s="1">
-        <v>32.800086975097656</v>
+        <v>29.140110015869141</v>
       </c>
       <c r="EN82" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO82" s="1">
-        <v>0.014627812430262566</v>
+        <v>0.011444129981100559</v>
       </c>
     </row>
     <row r="83">
@@ -32292,13 +32356,13 @@
         <v>6.5404925346374512</v>
       </c>
       <c r="EM83" s="1">
-        <v>34.531147003173828</v>
+        <v>35.527469635009766</v>
       </c>
       <c r="EN83" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO83" s="1">
-        <v>0.01539981085807085</v>
+        <v>0.013952623121440411</v>
       </c>
     </row>
     <row r="84">
@@ -32689,13 +32753,13 @@
         <v>6.3349289894104004</v>
       </c>
       <c r="EM84" s="1">
-        <v>9.1663532257080078</v>
+        <v>10.207571029663086</v>
       </c>
       <c r="EN84" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO84" s="1">
-        <v>0.0040879067964851856</v>
+        <v>0.0040087965317070484</v>
       </c>
     </row>
     <row r="85">
@@ -33080,13 +33144,13 @@
         <v>6.7008752822875977</v>
       </c>
       <c r="EM85" s="1">
-        <v>27.234830856323242</v>
+        <v>28.099279403686524</v>
       </c>
       <c r="EN85" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO85" s="1">
-        <v>0.012145882472395897</v>
+        <v>0.011035366915166378</v>
       </c>
     </row>
     <row r="86">
@@ -33473,13 +33537,13 @@
         <v>6.6676249504089356</v>
       </c>
       <c r="EM86" s="1">
-        <v>29.038087844848633</v>
+        <v>29.567764282226563</v>
       </c>
       <c r="EN86" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO86" s="1">
-        <v>0.012950078584253788</v>
+        <v>0.011612081900238991</v>
       </c>
     </row>
     <row r="87">
@@ -33845,11 +33909,15 @@
       <c r="EL87" s="1">
         <v>6.9186296463012695</v>
       </c>
-      <c r="EM87" s="1"/>
+      <c r="EM87" s="1">
+        <v>15.670748710632324</v>
+      </c>
       <c r="EN87" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO87" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO87" s="1">
+        <v>0.0061543378978967667</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -34213,13 +34281,13 @@
         <v>6.626551628112793</v>
       </c>
       <c r="EM88" s="1">
-        <v>27.840911865234375</v>
+        <v>31.433422088623047</v>
       </c>
       <c r="EN88" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO88" s="1">
-        <v>0.012416175566613674</v>
+        <v>0.012344776652753353</v>
       </c>
     </row>
     <row r="89">
@@ -34606,13 +34674,13 @@
         <v>6.5122456550598145</v>
       </c>
       <c r="EM89" s="1">
-        <v>12.119786262512207</v>
+        <v>10.838881492614746</v>
       </c>
       <c r="EN89" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO89" s="1">
-        <v>0.0054050455801188946</v>
+        <v>0.0042567295022308826</v>
       </c>
     </row>
     <row r="90">
@@ -34951,13 +35019,13 @@
         <v>6.5659193992614746</v>
       </c>
       <c r="EM90" s="1">
-        <v>33.383724212646484</v>
+        <v>34.291793823242188</v>
       </c>
       <c r="EN90" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO90" s="1">
-        <v>0.01488809660077095</v>
+        <v>0.013467338867485523</v>
       </c>
     </row>
     <row r="91">
@@ -35264,13 +35332,13 @@
         <v>6.8182282447814941</v>
       </c>
       <c r="EM91" s="1">
-        <v>21.292797088623047</v>
+        <v>23.215322494506836</v>
       </c>
       <c r="EN91" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO91" s="1">
-        <v>0.0094959214329719543</v>
+        <v>0.0091173015534877777</v>
       </c>
     </row>
     <row r="92">
@@ -35573,13 +35641,13 @@
         <v>5.7638111114501953</v>
       </c>
       <c r="EM92" s="1">
-        <v>30.711740493774414</v>
+        <v>30.733840942382813</v>
       </c>
       <c r="EN92" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO92" s="1">
-        <v>0.013696474954485893</v>
+        <v>0.012070031836628914</v>
       </c>
     </row>
     <row r="93">
@@ -35964,13 +36032,13 @@
         <v>5.8400907516479492</v>
       </c>
       <c r="EM93" s="1">
-        <v>28.546539306640625</v>
+        <v>27.353849411010742</v>
       </c>
       <c r="EN93" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO93" s="1">
-        <v>0.012730862945318222</v>
+        <v>0.010742615908384323</v>
       </c>
     </row>
     <row r="94">
@@ -36363,13 +36431,13 @@
         <v>5.8537817001342773</v>
       </c>
       <c r="EM94" s="1">
-        <v>30.113126754760742</v>
+        <v>26.768016815185547</v>
       </c>
       <c r="EN94" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO94" s="1">
-        <v>0.013429512269794941</v>
+        <v>0.01051254291087389</v>
       </c>
     </row>
     <row r="95">
@@ -36672,13 +36740,13 @@
         <v>5.8655171394348145</v>
       </c>
       <c r="EM95" s="1">
-        <v>30.902101516723633</v>
+        <v>26.270925521850586</v>
       </c>
       <c r="EN95" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO95" s="1">
-        <v>0.013781370595097542</v>
+        <v>0.010317321866750717</v>
       </c>
     </row>
     <row r="96">
@@ -36981,13 +37049,13 @@
         <v>6.003814697265625</v>
       </c>
       <c r="EM96" s="1">
-        <v>4.8213653564453125</v>
+        <v>7.1492853164672852</v>
       </c>
       <c r="EN96" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO96" s="1">
-        <v>0.0021501779556274414</v>
+        <v>0.0028077226597815752</v>
       </c>
     </row>
     <row r="97">
@@ -37378,13 +37446,13 @@
         <v>7.1507282257080078</v>
       </c>
       <c r="EM97" s="1">
-        <v>8.5190544128417969</v>
+        <v>11.907525062561035</v>
       </c>
       <c r="EN97" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO97" s="1">
-        <v>0.0037992317229509354</v>
+        <v>0.0046764155849814415</v>
       </c>
     </row>
     <row r="98">
@@ -37771,13 +37839,13 @@
         <v>5.8752965927124023</v>
       </c>
       <c r="EM98" s="1">
-        <v>28.506256103515625</v>
+        <v>25.860240936279297</v>
       </c>
       <c r="EN98" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO98" s="1">
-        <v>0.012712897732853889</v>
+        <v>0.010156034491956234</v>
       </c>
     </row>
     <row r="99">
@@ -38170,13 +38238,13 @@
         <v>6.0635843276977539</v>
       </c>
       <c r="EM99" s="1">
-        <v>31.728313446044922</v>
+        <v>28.022035598754883</v>
       </c>
       <c r="EN99" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO99" s="1">
-        <v>0.014149834401905537</v>
+        <v>0.011005030944943428</v>
       </c>
     </row>
     <row r="100">
@@ -38563,13 +38631,13 @@
         <v>6.5639634132385254</v>
       </c>
       <c r="EM100" s="1">
-        <v>33.824329376220703</v>
+        <v>34.386066436767578</v>
       </c>
       <c r="EN100" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO100" s="1">
-        <v>0.015084592625498772</v>
+        <v>0.013504362665116787</v>
       </c>
     </row>
     <row r="101">
@@ -38937,11 +39005,15 @@
       <c r="EL101" s="1">
         <v>7.0731444358825684</v>
       </c>
-      <c r="EM101" s="1"/>
+      <c r="EM101" s="1">
+        <v>11.043289184570313</v>
+      </c>
       <c r="EN101" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO101" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO101" s="1">
+        <v>0.0043370062485337257</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -39306,11 +39378,15 @@
       <c r="EL102" s="1">
         <v>6.7673749923706055</v>
       </c>
-      <c r="EM102" s="1"/>
+      <c r="EM102" s="1">
+        <v>25.274499893188477</v>
+      </c>
       <c r="EN102" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO102" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO102" s="1">
+        <v>0.0099259978160262108</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -39675,11 +39751,15 @@
       <c r="EL103" s="1">
         <v>6.8990707397460938</v>
       </c>
-      <c r="EM103" s="1"/>
+      <c r="EM103" s="1">
+        <v>16.314092636108399</v>
+      </c>
       <c r="EN103" s="1">
-        <v>2242.309814453125</v>
-      </c>
-      <c r="EO103" s="1"/>
+        <v>2546.293212890625</v>
+      </c>
+      <c r="EO103" s="1">
+        <v>0.0064069968648254871</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -40055,13 +40135,13 @@
         <v>5.8811640739440918</v>
       </c>
       <c r="EM104" s="1">
-        <v>28.31329345703125</v>
+        <v>25.615381240844727</v>
       </c>
       <c r="EN104" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO104" s="1">
-        <v>0.012626842595636845</v>
+        <v>0.010059870779514313</v>
       </c>
     </row>
     <row r="105">
@@ -40364,13 +40444,13 @@
         <v>6.5991692543029785</v>
       </c>
       <c r="EM105" s="1">
-        <v>32.572208404541016</v>
+        <v>32.708896636962891</v>
       </c>
       <c r="EN105" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO105" s="1">
-        <v>0.01452618557959795</v>
+        <v>0.012845691293478012</v>
       </c>
     </row>
     <row r="106">
@@ -40751,13 +40831,13 @@
         <v>6.9453606605529785</v>
       </c>
       <c r="EM106" s="1">
-        <v>17.780200958251953</v>
+        <v>18.450122833251953</v>
       </c>
       <c r="EN106" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO106" s="1">
-        <v>0.0079294135794043541</v>
+        <v>0.0072458749637007713</v>
       </c>
     </row>
     <row r="107">
@@ -41142,13 +41222,13 @@
         <v>6.5522279739379883</v>
       </c>
       <c r="EM107" s="1">
-        <v>33.856761932373047</v>
+        <v>34.954441070556641</v>
       </c>
       <c r="EN107" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO107" s="1">
-        <v>0.01509905606508255</v>
+        <v>0.013727579265832901</v>
       </c>
     </row>
     <row r="108">
@@ -41533,13 +41613,13 @@
         <v>6.5737428665161133</v>
       </c>
       <c r="EM108" s="1">
-        <v>32.794021606445313</v>
+        <v>33.915981292724609</v>
       </c>
       <c r="EN108" s="1">
-        <v>2242.309814453125</v>
+        <v>2546.293212890625</v>
       </c>
       <c r="EO108" s="1">
-        <v>0.014625106938183308</v>
+        <v>0.013319746591150761</v>
       </c>
     </row>
   </sheetData>
